--- a/Arquitetura - Exemplo de Instruções.xlsx
+++ b/Arquitetura - Exemplo de Instruções.xlsx
@@ -5,18 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m2m\workspace\ProjetoArq\MiniMIPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m2m\workspace\Arquitetura\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
     <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha5" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Planilha4!$D$4:$I$44</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="186">
   <si>
     <t>0x3c010064</t>
   </si>
@@ -422,9 +426,6 @@
     <t>5 BITS</t>
   </si>
   <si>
-    <t>DECODIFICAÇÃO DE INSTRUÇÃO</t>
-  </si>
-  <si>
     <t>opcode</t>
   </si>
   <si>
@@ -441,13 +442,160 @@
   </si>
   <si>
     <t>funct</t>
+  </si>
+  <si>
+    <t>001111</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>100100</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
+    <t>00011</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>100010</t>
+  </si>
+  <si>
+    <t>101010</t>
+  </si>
+  <si>
+    <t>001000</t>
+  </si>
+  <si>
+    <t>001010</t>
+  </si>
+  <si>
+    <t>100101</t>
+  </si>
+  <si>
+    <t>100110</t>
+  </si>
+  <si>
+    <t>100111</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001101</t>
+  </si>
+  <si>
+    <t>001110</t>
+  </si>
+  <si>
+    <t>100011</t>
+  </si>
+  <si>
+    <t>101011</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>000101</t>
+  </si>
+  <si>
+    <t>010000</t>
+  </si>
+  <si>
+    <t>010010</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>011000</t>
+  </si>
+  <si>
+    <t>001001</t>
+  </si>
+  <si>
+    <t>01010</t>
+  </si>
+  <si>
+    <t>101000</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>011011‬</t>
+  </si>
+  <si>
+    <t>000010‬</t>
+  </si>
+  <si>
+    <t>000100‬</t>
+  </si>
+  <si>
+    <t>000110‬</t>
+  </si>
+  <si>
+    <t>000111‬</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>TIPO R</t>
+  </si>
+  <si>
+    <t>TIPO I</t>
+  </si>
+  <si>
+    <t>TIPO J</t>
+  </si>
+  <si>
+    <t>00000 00001 100100</t>
+  </si>
+  <si>
+    <t>00000 10000 00000 00000 000000</t>
+  </si>
+  <si>
+    <t>11111 11111 101110</t>
+  </si>
+  <si>
+    <t>11111 11111 101101</t>
+  </si>
+  <si>
+    <t>11111 11111 101100</t>
+  </si>
+  <si>
+    <t>00000 00001 100100‬</t>
+  </si>
+  <si>
+    <t>00000 10000 00000 00000 000000‬</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +623,16 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -484,7 +642,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -777,21 +935,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -858,6 +1001,65 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -866,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -913,65 +1115,107 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,441 +1531,562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="3">
+        <v>21</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="3">
+        <v>22</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="3">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="3">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="3">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="3">
+        <v>26</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="3">
+        <v>27</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="3">
+        <v>28</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="3">
+        <v>29</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="3">
+        <v>30</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="3">
+        <v>31</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="3">
+        <v>32</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="3">
+        <v>33</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="3">
+        <v>34</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="3">
+        <v>35</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="3">
+        <v>36</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="3">
+        <v>37</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="3">
+        <v>38</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="3">
+        <v>39</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="3">
+        <v>40</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="G21" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1735,7 +2100,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1942,7 +2309,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1959,16 +2326,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="4" t="s">
@@ -2427,1228 +2794,1466 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="36" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="8" customWidth="1"/>
     <col min="4" max="9" width="12.7109375" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A2" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="E1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A4" s="35"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="I2" s="33" t="s">
+      <c r="D4" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="25">
+      <c r="E5" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="1:9" hidden="1">
+      <c r="A6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1">
+      <c r="A7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1">
+      <c r="A8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+    </row>
+    <row r="11" spans="1:9" hidden="1">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1">
+      <c r="A12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1">
+      <c r="A13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1">
+      <c r="A14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
+      <c r="A17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+    </row>
+    <row r="21" spans="1:9" hidden="1">
+      <c r="A21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="26">
-        <v>0</v>
-      </c>
-      <c r="F4" s="26">
-        <v>1</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="26">
-        <v>1</v>
-      </c>
-      <c r="I4" s="27">
+      <c r="B21" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1">
+      <c r="A23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49"/>
+    </row>
+    <row r="25" spans="1:9" hidden="1">
+      <c r="A25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1">
+      <c r="A26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1">
+      <c r="A27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1">
+      <c r="A28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="25">
+        <v>100011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1">
+      <c r="A29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1">
+      <c r="A30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" s="25">
+        <v>11001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1">
+      <c r="A31" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="25">
+        <v>11010</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1">
+      <c r="A32" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1">
+      <c r="A33" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
+    </row>
+    <row r="34" spans="1:9" hidden="1">
+      <c r="A34" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1">
+      <c r="A35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1">
+      <c r="A36" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1">
+      <c r="A37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1">
+      <c r="A38" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1">
+      <c r="A39" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1">
+      <c r="A40" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="H40" s="48"/>
+      <c r="I40" s="49"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1">
+      <c r="A41" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="28">
-        <v>0</v>
-      </c>
-      <c r="E5" s="24">
-        <v>2</v>
-      </c>
-      <c r="F5" s="24">
-        <v>3</v>
-      </c>
-      <c r="G5" s="24">
-        <v>1</v>
-      </c>
-      <c r="H5" s="24">
-        <v>0</v>
-      </c>
-      <c r="I5" s="29">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="28">
-        <v>0</v>
-      </c>
-      <c r="E6" s="24">
-        <v>2</v>
-      </c>
-      <c r="F6" s="24">
-        <v>3</v>
-      </c>
-      <c r="G6" s="24">
-        <v>1</v>
-      </c>
-      <c r="H6" s="24">
-        <v>0</v>
-      </c>
-      <c r="I6" s="29">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="28">
-        <v>0</v>
-      </c>
-      <c r="E7" s="24">
-        <v>2</v>
-      </c>
-      <c r="F7" s="24">
-        <v>3</v>
-      </c>
-      <c r="G7" s="24">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24">
-        <v>0</v>
-      </c>
-      <c r="I7" s="29">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="28">
-        <v>8</v>
-      </c>
-      <c r="E8" s="24">
-        <v>2</v>
-      </c>
-      <c r="F8" s="24">
-        <v>1</v>
-      </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="24">
-        <v>1</v>
-      </c>
-      <c r="I8" s="29">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="28">
-        <v>10</v>
-      </c>
-      <c r="E9" s="24">
-        <v>2</v>
-      </c>
-      <c r="F9" s="24">
-        <v>1</v>
-      </c>
-      <c r="G9" s="24">
-        <v>0</v>
-      </c>
-      <c r="H9" s="24">
-        <v>1</v>
-      </c>
-      <c r="I9" s="29">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="28">
-        <v>0</v>
-      </c>
-      <c r="E10" s="24">
-        <v>2</v>
-      </c>
-      <c r="F10" s="24">
-        <v>3</v>
-      </c>
-      <c r="G10" s="24">
-        <v>1</v>
-      </c>
-      <c r="H10" s="24">
-        <v>0</v>
-      </c>
-      <c r="I10" s="29">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="28">
-        <v>0</v>
-      </c>
-      <c r="E11" s="24">
-        <v>2</v>
-      </c>
-      <c r="F11" s="24">
-        <v>3</v>
-      </c>
-      <c r="G11" s="24">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24">
-        <v>0</v>
-      </c>
-      <c r="I11" s="29">
+      <c r="B41" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="H41" s="48"/>
+      <c r="I41" s="49"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1">
+      <c r="A42" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="28">
-        <v>0</v>
-      </c>
-      <c r="E12" s="24">
-        <v>2</v>
-      </c>
-      <c r="F12" s="24">
-        <v>3</v>
-      </c>
-      <c r="G12" s="24">
-        <v>1</v>
-      </c>
-      <c r="H12" s="24">
-        <v>0</v>
-      </c>
-      <c r="I12" s="29">
+      <c r="B42" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1">
+      <c r="A43" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="28">
-        <v>0</v>
-      </c>
-      <c r="E13" s="24">
-        <v>2</v>
-      </c>
-      <c r="F13" s="24">
-        <v>3</v>
-      </c>
-      <c r="G13" s="24">
-        <v>1</v>
-      </c>
-      <c r="H13" s="24">
-        <v>0</v>
-      </c>
-      <c r="I13" s="29">
+      <c r="B43" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" hidden="1" thickBot="1">
+      <c r="A44" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="28">
-        <v>12</v>
-      </c>
-      <c r="E14" s="24">
-        <v>2</v>
-      </c>
-      <c r="F14" s="24">
-        <v>1</v>
-      </c>
-      <c r="G14" s="24">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
-        <v>1</v>
-      </c>
-      <c r="I14" s="29">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="28">
-        <v>13</v>
-      </c>
-      <c r="E15" s="24">
-        <v>2</v>
-      </c>
-      <c r="F15" s="24">
-        <v>1</v>
-      </c>
-      <c r="G15" s="24">
-        <v>0</v>
-      </c>
-      <c r="H15" s="24">
-        <v>1</v>
-      </c>
-      <c r="I15" s="29">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="28">
-        <v>14</v>
-      </c>
-      <c r="E16" s="24">
-        <v>2</v>
-      </c>
-      <c r="F16" s="24">
-        <v>1</v>
-      </c>
-      <c r="G16" s="24">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24">
-        <v>1</v>
-      </c>
-      <c r="I16" s="29">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="28">
-        <v>35</v>
-      </c>
-      <c r="E17" s="24">
-        <v>2</v>
-      </c>
-      <c r="F17" s="24">
-        <v>1</v>
-      </c>
-      <c r="G17" s="24">
-        <v>0</v>
-      </c>
-      <c r="H17" s="24">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="28">
-        <v>43</v>
-      </c>
-      <c r="E18" s="24">
-        <v>2</v>
-      </c>
-      <c r="F18" s="24">
-        <v>1</v>
-      </c>
-      <c r="G18" s="24">
-        <v>0</v>
-      </c>
-      <c r="H18" s="24">
-        <v>1</v>
-      </c>
-      <c r="I18" s="29">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="28">
-        <v>2</v>
-      </c>
-      <c r="E19" s="24">
-        <v>0</v>
-      </c>
-      <c r="F19" s="24">
-        <v>32</v>
-      </c>
-      <c r="G19" s="24">
-        <v>0</v>
-      </c>
-      <c r="H19" s="24">
-        <v>0</v>
-      </c>
-      <c r="I19" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="28">
-        <v>0</v>
-      </c>
-      <c r="E20" s="24">
-        <v>1</v>
-      </c>
-      <c r="F20" s="24">
-        <v>0</v>
-      </c>
-      <c r="G20" s="24">
-        <v>0</v>
-      </c>
-      <c r="H20" s="24">
-        <v>0</v>
-      </c>
-      <c r="I20" s="29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="28">
-        <v>1</v>
-      </c>
-      <c r="E21" s="24">
-        <v>1</v>
-      </c>
-      <c r="F21" s="24">
-        <v>0</v>
-      </c>
-      <c r="G21" s="24">
-        <v>31</v>
-      </c>
-      <c r="H21" s="24">
-        <v>31</v>
-      </c>
-      <c r="I21" s="29">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="28">
-        <v>4</v>
-      </c>
-      <c r="E22" s="24">
-        <v>1</v>
-      </c>
-      <c r="F22" s="24">
-        <v>2</v>
-      </c>
-      <c r="G22" s="24">
-        <v>31</v>
-      </c>
-      <c r="H22" s="24">
-        <v>31</v>
-      </c>
-      <c r="I22" s="29">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A23" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="28">
-        <v>5</v>
-      </c>
-      <c r="E23" s="24">
-        <v>1</v>
-      </c>
-      <c r="F23" s="24">
-        <v>2</v>
-      </c>
-      <c r="G23" s="24">
-        <v>31</v>
-      </c>
-      <c r="H23" s="24">
-        <v>31</v>
-      </c>
-      <c r="I23" s="29">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="28">
-        <v>0</v>
-      </c>
-      <c r="E24" s="24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="24">
-        <v>1</v>
-      </c>
-      <c r="H24" s="24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="29">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="28">
-        <v>0</v>
-      </c>
-      <c r="E25" s="24">
-        <v>0</v>
-      </c>
-      <c r="F25" s="24">
-        <v>0</v>
-      </c>
-      <c r="G25" s="24">
-        <v>1</v>
-      </c>
-      <c r="H25" s="24">
-        <v>0</v>
-      </c>
-      <c r="I25" s="29">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="28">
-        <v>0</v>
-      </c>
-      <c r="E26" s="24">
-        <v>2</v>
-      </c>
-      <c r="F26" s="24">
-        <v>3</v>
-      </c>
-      <c r="G26" s="24">
-        <v>1</v>
-      </c>
-      <c r="H26" s="24">
-        <v>0</v>
-      </c>
-      <c r="I26" s="29">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="28">
-        <v>0</v>
-      </c>
-      <c r="E27" s="24">
-        <v>2</v>
-      </c>
-      <c r="F27" s="24">
-        <v>3</v>
-      </c>
-      <c r="G27" s="24">
-        <v>1</v>
-      </c>
-      <c r="H27" s="24">
-        <v>0</v>
-      </c>
-      <c r="I27" s="29">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="24">
-        <v>1</v>
-      </c>
-      <c r="F28" s="24">
-        <v>2</v>
-      </c>
-      <c r="G28" s="24">
-        <v>0</v>
-      </c>
-      <c r="H28" s="24">
-        <v>0</v>
-      </c>
-      <c r="I28" s="29">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="28">
-        <v>0</v>
-      </c>
-      <c r="E29" s="24">
-        <v>1</v>
-      </c>
-      <c r="F29" s="24">
-        <v>2</v>
-      </c>
-      <c r="G29" s="24">
-        <v>0</v>
-      </c>
-      <c r="H29" s="24">
-        <v>0</v>
-      </c>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="28">
-        <v>0</v>
-      </c>
-      <c r="E30" s="24">
-        <v>1</v>
-      </c>
-      <c r="F30" s="24">
-        <v>2</v>
-      </c>
-      <c r="G30" s="24">
-        <v>0</v>
-      </c>
-      <c r="H30" s="24">
-        <v>0</v>
-      </c>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="28">
-        <v>0</v>
-      </c>
-      <c r="E31" s="24">
-        <v>1</v>
-      </c>
-      <c r="F31" s="24">
-        <v>2</v>
-      </c>
-      <c r="G31" s="24">
-        <v>0</v>
-      </c>
-      <c r="H31" s="24">
-        <v>0</v>
-      </c>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="28">
-        <v>9</v>
-      </c>
-      <c r="E32" s="24">
-        <v>2</v>
-      </c>
-      <c r="F32" s="24">
-        <v>1</v>
-      </c>
-      <c r="G32" s="24">
-        <v>0</v>
-      </c>
-      <c r="H32" s="24">
-        <v>1</v>
-      </c>
-      <c r="I32" s="29"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="28">
-        <v>0</v>
-      </c>
-      <c r="E33" s="24">
-        <v>0</v>
-      </c>
-      <c r="F33" s="24">
-        <v>2</v>
-      </c>
-      <c r="G33" s="24">
-        <v>1</v>
-      </c>
-      <c r="H33" s="24">
-        <v>10</v>
-      </c>
-      <c r="I33" s="29"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="28">
-        <v>0</v>
-      </c>
-      <c r="E34" s="24">
-        <v>0</v>
-      </c>
-      <c r="F34" s="24">
-        <v>2</v>
-      </c>
-      <c r="G34" s="24">
-        <v>1</v>
-      </c>
-      <c r="H34" s="24">
-        <v>10</v>
-      </c>
-      <c r="I34" s="29"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="28">
-        <v>0</v>
-      </c>
-      <c r="E35" s="24">
-        <v>0</v>
-      </c>
-      <c r="F35" s="24">
-        <v>2</v>
-      </c>
-      <c r="G35" s="24">
-        <v>1</v>
-      </c>
-      <c r="H35" s="24">
-        <v>10</v>
-      </c>
-      <c r="I35" s="29"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="28">
-        <v>0</v>
-      </c>
-      <c r="E36" s="24">
-        <v>3</v>
-      </c>
-      <c r="F36" s="24">
-        <v>2</v>
-      </c>
-      <c r="G36" s="24">
-        <v>1</v>
-      </c>
-      <c r="H36" s="24">
-        <v>0</v>
-      </c>
-      <c r="I36" s="29"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="28">
-        <v>0</v>
-      </c>
-      <c r="E37" s="24">
-        <v>3</v>
-      </c>
-      <c r="F37" s="24">
-        <v>2</v>
-      </c>
-      <c r="G37" s="24">
-        <v>1</v>
-      </c>
-      <c r="H37" s="24">
-        <v>0</v>
-      </c>
-      <c r="I37" s="29"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="28">
-        <v>0</v>
-      </c>
-      <c r="E38" s="24">
-        <v>3</v>
-      </c>
-      <c r="F38" s="24">
-        <v>2</v>
-      </c>
-      <c r="G38" s="24">
-        <v>1</v>
-      </c>
-      <c r="H38" s="24">
-        <v>0</v>
-      </c>
-      <c r="I38" s="29"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="28">
-        <v>32</v>
-      </c>
-      <c r="E39" s="24">
-        <v>2</v>
-      </c>
-      <c r="F39" s="24">
-        <v>1</v>
-      </c>
-      <c r="G39" s="24">
-        <v>0</v>
-      </c>
-      <c r="H39" s="24">
-        <v>1</v>
-      </c>
-      <c r="I39" s="29"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="28">
-        <v>36</v>
-      </c>
-      <c r="E40" s="24">
-        <v>2</v>
-      </c>
-      <c r="F40" s="24">
-        <v>1</v>
-      </c>
-      <c r="G40" s="24">
-        <v>0</v>
-      </c>
-      <c r="H40" s="24">
-        <v>1</v>
-      </c>
-      <c r="I40" s="29"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="28">
-        <v>40</v>
-      </c>
-      <c r="E41" s="24">
-        <v>2</v>
-      </c>
-      <c r="F41" s="24">
-        <v>1</v>
-      </c>
-      <c r="G41" s="24">
-        <v>0</v>
-      </c>
-      <c r="H41" s="24">
-        <v>1</v>
-      </c>
-      <c r="I41" s="29"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="28">
-        <v>3</v>
-      </c>
-      <c r="E42" s="24">
-        <v>0</v>
-      </c>
-      <c r="F42" s="24">
-        <v>32</v>
-      </c>
-      <c r="G42" s="24">
-        <v>0</v>
-      </c>
-      <c r="H42" s="24">
-        <v>0</v>
-      </c>
-      <c r="I42" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A43" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="12" t="s">
+      <c r="B44" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C44" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="30">
-        <v>0</v>
-      </c>
-      <c r="E43" s="31">
-        <v>0</v>
-      </c>
-      <c r="F43" s="31">
-        <v>0</v>
-      </c>
-      <c r="G43" s="31">
-        <v>0</v>
-      </c>
-      <c r="H43" s="31">
-        <v>0</v>
-      </c>
-      <c r="I43" s="32">
-        <v>12</v>
+      <c r="D44" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+  <autoFilter ref="D4:I44">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="000001"/>
+        <filter val="000010"/>
+        <filter val="000011"/>
+        <filter val="000100"/>
+        <filter val="000101"/>
+        <filter val="001000"/>
+        <filter val="001001"/>
+        <filter val="001010"/>
+        <filter val="001100"/>
+        <filter val="001101"/>
+        <filter val="001110"/>
+        <filter val="001111"/>
+        <filter val="100000"/>
+        <filter val="100011"/>
+        <filter val="100100"/>
+        <filter val="101000"/>
+        <filter val="101011"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="21">
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="E3:I3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D5 E6:I8 E34:I34 D6:D33 D34:D44 E29:I29 E28:H28 E30:H30 E31:H31 E32:H32 E40:F40 E35:H35 E36:H36 E37:H37 E38:H38 E39:H39 E44:I44 E42:F42 E41:F41 E21:I21 E5:F5 E11:I14 E9:F9 E10:F10 E19:F19 E15:F15 E16:F16 E17:F17 E18:F18 E25:I27 E22:F22 E23:F23 E24:F24 E33:F33" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="32" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>17</v>
+      </c>
+      <c r="P2">
+        <v>16</v>
+      </c>
+      <c r="Q2">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>14</v>
+      </c>
+      <c r="S2">
+        <v>13</v>
+      </c>
+      <c r="T2">
+        <v>12</v>
+      </c>
+      <c r="U2">
+        <v>11</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>9</v>
+      </c>
+      <c r="X2">
+        <v>8</v>
+      </c>
+      <c r="Y2">
+        <v>7</v>
+      </c>
+      <c r="Z2">
+        <v>6</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2">
+        <v>4</v>
+      </c>
+      <c r="AC2">
+        <v>3</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>